--- a/resourcen/Kalkulationsvorlage.xlsx
+++ b/resourcen/Kalkulationsvorlage.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickjochum/codespace/python/excel/kalkulationstool/resourcen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickjochum/codespace/python/excel/excel_kalkulationstool/resourcen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2214384-F7AF-FC42-8F8A-CD77BCCDC1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DF7FA5-6488-2247-9E88-B08968D90203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="2100" windowWidth="27840" windowHeight="16740" xr2:uid="{ACBE030D-27B0-334B-AE1F-8A0C4C4B1B04}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19200" xr2:uid="{ACBE030D-27B0-334B-AE1F-8A0C4C4B1B04}"/>
   </bookViews>
   <sheets>
     <sheet name="Kalkulation" sheetId="1" r:id="rId1"/>
+    <sheet name="_styling" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Dies ist eine Vorformatierte Kalkulation</t>
   </si>
@@ -78,6 +79,78 @@
   </si>
   <si>
     <t>Signatur2</t>
+  </si>
+  <si>
+    <t>[LOGO]</t>
+  </si>
+  <si>
+    <t>Hallo</t>
+  </si>
+  <si>
+    <t>Welt</t>
+  </si>
+  <si>
+    <t>Struktur1</t>
+  </si>
+  <si>
+    <t>Struktur2</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>Kategorie</t>
+  </si>
+  <si>
+    <t>[KATEGORIE_NAME]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>[KATEGORIE_INDEX]</t>
+  </si>
+  <si>
+    <t>Einheit</t>
+  </si>
+  <si>
+    <t>[EINHEIT_INDEX]</t>
+  </si>
+  <si>
+    <t>[EINHEIT_NAME]</t>
+  </si>
+  <si>
+    <t>[EINHEIT_PREIS]</t>
+  </si>
+  <si>
+    <t>[EINHEIT_NENNER]</t>
+  </si>
+  <si>
+    <t>[EINHEIT_MENGE]</t>
+  </si>
+  <si>
+    <t>[EINHEIT_SUMME]</t>
+  </si>
+  <si>
+    <t>Footer</t>
+  </si>
+  <si>
+    <t>[KATEGORIE_SUMME]</t>
+  </si>
+  <si>
+    <t>[GESAMT_SUMME]</t>
+  </si>
+  <si>
+    <t>[HEADER]</t>
+  </si>
+  <si>
+    <t>[END]</t>
+  </si>
+  <si>
+    <t>[ELEMENTE]</t>
+  </si>
+  <si>
+    <t>Gesamt:</t>
   </si>
 </sst>
 </file>
@@ -93,12 +166,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -113,8 +198,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -130,63 +221,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1358900</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Grafik 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2CB91BE-CDD4-0881-9A5B-754D34D9E04E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5041900" y="254000"/>
-          <a:ext cx="1968500" cy="1968500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst>
-          <a:softEdge rad="156725"/>
-        </a:effectLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -486,65 +520,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB5991E5-1EE6-6B4F-9CFB-473566253E33}">
-  <dimension ref="B2:E20"/>
+  <dimension ref="B2:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.83203125" customWidth="1"/>
     <col min="2" max="2" width="8.83203125" customWidth="1"/>
-    <col min="3" max="6" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="3.1640625" customWidth="1"/>
+    <col min="4" max="4" width="3" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>9</v>
       </c>
@@ -568,7 +661,177 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G2:I11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD59F5D-B1EB-4D41-8AA0-0B5ABF3B1B5D}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/resourcen/Kalkulationsvorlage.xlsx
+++ b/resourcen/Kalkulationsvorlage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickjochum/codespace/python/excel/excel_kalkulationstool/resourcen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DF7FA5-6488-2247-9E88-B08968D90203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C0A30C-577A-AB45-B2B2-6542056CA4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19200" xr2:uid="{ACBE030D-27B0-334B-AE1F-8A0C4C4B1B04}"/>
   </bookViews>
@@ -523,7 +523,7 @@
   <dimension ref="B2:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:I11"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -642,21 +642,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>12</v>
       </c>
-      <c r="E20" t="s">
+      <c r="H20" t="s">
         <v>13</v>
       </c>
     </row>
